--- a/Jogos_do_Dia/2024-03-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -727,13 +727,13 @@
         <v>4.83</v>
       </c>
       <c r="J2">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="M2">
         <v>1.44</v>
@@ -754,10 +754,10 @@
         <v>3.1</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="U2">
         <v>1.93</v>
@@ -858,13 +858,13 @@
         <v>4.03</v>
       </c>
       <c r="J3">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -885,10 +885,10 @@
         <v>2.92</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U3">
         <v>1.89</v>
@@ -989,13 +989,13 @@
         <v>5.5</v>
       </c>
       <c r="J4">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="M4">
         <v>1.53</v>
@@ -1016,10 +1016,10 @@
         <v>2.55</v>
       </c>
       <c r="S4">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="T4">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U4">
         <v>2.25</v>
@@ -1120,13 +1120,13 @@
         <v>2.5</v>
       </c>
       <c r="J5">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K5">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1147,10 +1147,10 @@
         <v>4</v>
       </c>
       <c r="S5">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>1.73</v>
@@ -1251,13 +1251,13 @@
         <v>3.6</v>
       </c>
       <c r="J6">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="L6">
-        <v>2.8</v>
+        <v>3.07</v>
       </c>
       <c r="M6">
         <v>1.4</v>
@@ -1278,10 +1278,10 @@
         <v>3.25</v>
       </c>
       <c r="S6">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="U6">
         <v>1.8</v>

--- a/Jogos_do_Dia/2024-03-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -727,13 +727,13 @@
         <v>4.83</v>
       </c>
       <c r="J2">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="K2">
-        <v>2.93</v>
+        <v>3.44</v>
       </c>
       <c r="L2">
-        <v>3.64</v>
+        <v>4.15</v>
       </c>
       <c r="M2">
         <v>1.44</v>
@@ -754,10 +754,10 @@
         <v>3.1</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T2">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="U2">
         <v>1.93</v>
@@ -775,10 +775,10 @@
         <v>1.85</v>
       </c>
       <c r="Z2">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AA2">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AB2">
         <v>1.48</v>
@@ -858,13 +858,13 @@
         <v>4.03</v>
       </c>
       <c r="J3">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="K3">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>2.88</v>
+        <v>3.32</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -885,10 +885,10 @@
         <v>2.92</v>
       </c>
       <c r="S3">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="T3">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="U3">
         <v>1.89</v>
@@ -989,13 +989,13 @@
         <v>5.5</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="L4">
-        <v>2.63</v>
+        <v>5.7</v>
       </c>
       <c r="M4">
         <v>1.53</v>
@@ -1016,10 +1016,10 @@
         <v>2.55</v>
       </c>
       <c r="S4">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="T4">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U4">
         <v>2.25</v>
@@ -1123,10 +1123,10 @@
         <v>4.2</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.78</v>
       </c>
       <c r="L5">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1147,10 +1147,10 @@
         <v>4</v>
       </c>
       <c r="S5">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
         <v>1.73</v>
@@ -1251,13 +1251,13 @@
         <v>3.6</v>
       </c>
       <c r="J6">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="K6">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>3.07</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
         <v>1.4</v>
@@ -1278,10 +1278,10 @@
         <v>3.25</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U6">
         <v>1.8</v>
